--- a/config_aomi_8.10/game_module_config.xlsx
+++ b/config_aomi_8.10/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1019">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4561,10 +4561,10 @@
   <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C305" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C278" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
+      <selection pane="bottomRight" activeCell="D297" sqref="D297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11890,13 +11890,13 @@
         <v>836</v>
       </c>
       <c r="E288" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G288" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I288" s="41" t="s">
         <v>723</v>
